--- a/biology/Botanique/Paphinia_cristata_f._modiglianiana/Paphinia_cristata_f._modiglianiana.xlsx
+++ b/biology/Botanique/Paphinia_cristata_f._modiglianiana/Paphinia_cristata_f._modiglianiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia cristata f. modiglianiana (Rchb.f.) Gruss. est une forme d'orchidée appartenant à la sous-tribu des Stanhopeinae.
 Il s’agit d’une forme albinos de Paphinia cristata. Elle ne doit pas être confondue avec Paphinia subclausa, espèce à fleurs blanches originaire de la région de Turrialba, au Costa Rica. 
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom donné en l’honneur du chevalier Ludovico Modigliani, orchidophile florentin de la fin du XIXe siècle.
 </t>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paphinia cristata var. modiglianiana Rchb.f., Lindenia 3: t.117 (1887).
 Paphinia modigliani Hort. ex Linden, 1888.
@@ -575,7 +591,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">P.cristata Lindl. Modiglianiana Rchb.f.. Floribus albis.
 </t>
@@ -606,7 +624,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazonie, Guyane, Pérou, sans indication.
 </t>
@@ -637,7 +657,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Paphinia cristata.
 </t>
